--- a/Problem_set.xlsx
+++ b/Problem_set.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujin\source\repos\BOJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5F6682-3774-45B7-8489-908BC38A8456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC462809-E414-41A0-AEEB-3C54B748A82D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12510" yWindow="255" windowWidth="11940" windowHeight="14670" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
+    <workbookView xWindow="10845" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
   <si>
     <t>기출 문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,13 +373,27 @@
   <si>
     <t>다리 만들기 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper_bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value 와 같거나 큰 값이 처음 나타나는 위치를 반복자로 반환</t>
+  </si>
+  <si>
+    <t>만약 value가 없다면, value보다 큰 값중에서 가장 작은 값을 반환</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +424,12 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -438,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +477,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A03942-3CED-4DF8-BC8F-0875955C4CAC}">
-  <dimension ref="B2:G89"/>
+  <dimension ref="B2:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -801,7 +825,7 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1194</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -964,7 +988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:9">
       <c r="B17" s="1">
         <v>2602</v>
       </c>
@@ -978,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:9">
       <c r="B18" s="1">
         <v>2638</v>
       </c>
@@ -989,7 +1013,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:9">
       <c r="B19" s="1">
         <v>2931</v>
       </c>
@@ -1003,7 +1027,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:9">
       <c r="B20" s="3">
         <v>3020</v>
       </c>
@@ -1017,7 +1041,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:9">
       <c r="B21" s="3">
         <v>3055</v>
       </c>
@@ -1031,7 +1055,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:9">
       <c r="B22" s="1">
         <v>3079</v>
       </c>
@@ -1045,7 +1069,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:9">
       <c r="B23" s="1">
         <v>3987</v>
       </c>
@@ -1059,7 +1083,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:9">
       <c r="B24" s="1">
         <v>4008</v>
       </c>
@@ -1073,7 +1097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:9">
       <c r="B25" s="1">
         <v>4012</v>
       </c>
@@ -1087,7 +1111,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:9">
       <c r="B26" s="1">
         <v>4013</v>
       </c>
@@ -1101,7 +1125,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:9">
       <c r="B27" s="1">
         <v>4014</v>
       </c>
@@ -1115,7 +1139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:9">
       <c r="B28" s="3">
         <v>5373</v>
       </c>
@@ -1126,7 +1150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:9">
       <c r="B29" s="3">
         <v>5427</v>
       </c>
@@ -1137,7 +1161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:9">
       <c r="B30" s="1">
         <v>5644</v>
       </c>
@@ -1148,7 +1172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:9">
       <c r="B31" s="1">
         <v>5644</v>
       </c>
@@ -1158,8 +1182,14 @@
       <c r="D31" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="1">
         <v>5644</v>
       </c>
@@ -1169,8 +1199,11 @@
       <c r="D32" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="I32" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" s="1">
         <v>5644</v>
       </c>
@@ -1180,8 +1213,11 @@
       <c r="D33" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" s="1">
         <v>5644</v>
       </c>
@@ -1192,7 +1228,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:7">
       <c r="B35" s="1">
         <v>5644</v>
       </c>
@@ -1203,7 +1239,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:7">
       <c r="B36" s="1">
         <v>5644</v>
       </c>
@@ -1214,7 +1250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:7">
       <c r="B37" s="1">
         <v>5644</v>
       </c>
@@ -1225,7 +1261,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:7">
       <c r="B38" s="1">
         <v>5648</v>
       </c>
@@ -1236,7 +1272,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:7">
       <c r="B39" s="1">
         <v>5650</v>
       </c>
@@ -1247,7 +1283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:7">
       <c r="B40" s="1">
         <v>5653</v>
       </c>
@@ -1258,7 +1294,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:7">
       <c r="B41" s="1">
         <v>5656</v>
       </c>
@@ -1269,7 +1305,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:7">
       <c r="B42" s="1">
         <v>5658</v>
       </c>
@@ -1280,7 +1316,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:7">
       <c r="B43" s="1">
         <v>6087</v>
       </c>
@@ -1291,7 +1327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:7">
       <c r="B44" s="1">
         <v>9019</v>
       </c>
@@ -1302,7 +1338,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:7">
       <c r="B45" s="1">
         <v>9328</v>
       </c>
@@ -1313,7 +1349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:7">
       <c r="B46" s="1">
         <v>9376</v>
       </c>
@@ -1324,7 +1360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:7">
       <c r="B47" s="1">
         <v>10875</v>
       </c>
@@ -1335,7 +1371,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:7">
       <c r="B48" s="1">
         <v>11055</v>
       </c>
@@ -1479,7 +1515,7 @@
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="1">
+      <c r="B61" s="3">
         <v>14891</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1633,8 +1669,8 @@
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="1">
-        <v>17069</v>
+      <c r="B75" s="3">
+        <v>17070</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>

--- a/Problem_set.xlsx
+++ b/Problem_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujin\source\repos\BOJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC462809-E414-41A0-AEEB-3C54B748A82D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0E650C-8185-4B9E-B135-D6A7E6AAEE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10845" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
+    <workbookView xWindow="5490" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
   <si>
     <t>기출 문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,13 +387,29 @@
   </si>
   <si>
     <t>만약 value가 없다면, value보다 큰 값중에서 가장 작은 값을 반환</t>
+  </si>
+  <si>
+    <t>출처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value 보다 큰 값이 처음 나타나는 위치를 반복자로 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,10 +441,29 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -445,12 +480,49 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -459,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,13 +544,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,22 +876,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A03942-3CED-4DF8-BC8F-0875955C4CAC}">
-  <dimension ref="B2:I89"/>
+  <dimension ref="B1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:7" ht="17.25" thickBot="1">
+      <c r="B2" s="6" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -818,10 +911,10 @@
         <v>1022</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:7">
@@ -829,10 +922,10 @@
         <v>1194</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -840,10 +933,10 @@
         <v>1525</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -851,10 +944,10 @@
         <v>1600</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -862,10 +955,10 @@
         <v>1726</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -873,10 +966,10 @@
         <v>1937</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -884,10 +977,10 @@
         <v>1938</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G9" t="s">
         <v>1</v>
@@ -898,10 +991,10 @@
         <v>1939</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
@@ -912,10 +1005,10 @@
         <v>1952</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -926,10 +1019,10 @@
         <v>2151</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
@@ -940,10 +1033,10 @@
         <v>2156</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -951,10 +1044,10 @@
         <v>2169</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -965,10 +1058,10 @@
         <v>2468</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -979,407 +1072,472 @@
         <v>2529</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:10">
       <c r="B17" s="1">
         <v>2602</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:10">
       <c r="B18" s="1">
         <v>2638</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="1">
         <v>2931</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:10">
       <c r="B20" s="3">
         <v>3020</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:10">
       <c r="B21" s="3">
         <v>3055</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G21" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:10">
       <c r="B22" s="1">
         <v>3079</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="G22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:10">
       <c r="B23" s="1">
         <v>3987</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="1">
         <v>4008</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="1">
         <v>4012</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="1">
         <v>4013</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="1">
         <v>4014</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="G27" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="3">
         <v>5373</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="3">
         <v>5427</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="1">
         <v>5644</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="1">
         <v>5644</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="5"/>
+      <c r="I31" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="1">
         <v>5644</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="9" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="1">
         <v>5644</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="H33" s="5"/>
+      <c r="I33" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="1">
         <v>5644</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="1">
         <v>5644</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="1">
         <v>5644</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="1">
         <v>5644</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
       <c r="B38" s="1">
         <v>5648</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
       <c r="B39" s="1">
         <v>5650</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
       <c r="B40" s="1">
         <v>5653</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
       <c r="B41" s="1">
         <v>5656</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+    </row>
+    <row r="42" spans="2:10">
       <c r="B42" s="1">
         <v>5658</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
+    </row>
+    <row r="43" spans="2:10">
       <c r="B43" s="1">
         <v>6087</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
+    </row>
+    <row r="44" spans="2:10">
       <c r="B44" s="1">
         <v>9019</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="1">
         <v>9328</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
+    </row>
+    <row r="46" spans="2:10">
       <c r="B46" s="1">
         <v>9376</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" s="1">
         <v>10875</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
+    </row>
+    <row r="48" spans="2:10">
       <c r="B48" s="1">
         <v>11055</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -1387,10 +1545,10 @@
         <v>11066</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -1398,10 +1556,10 @@
         <v>11559</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -1409,10 +1567,10 @@
         <v>11727</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -1420,10 +1578,10 @@
         <v>13458</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -1431,10 +1589,10 @@
         <v>14499</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -1442,10 +1600,10 @@
         <v>14500</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -1453,10 +1611,10 @@
         <v>14501</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -1464,10 +1622,10 @@
         <v>14502</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -1475,10 +1633,10 @@
         <v>14503</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -1486,10 +1644,10 @@
         <v>14888</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -1497,10 +1655,10 @@
         <v>14889</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -1508,10 +1666,10 @@
         <v>14890</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -1519,10 +1677,10 @@
         <v>14891</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -1530,10 +1688,10 @@
         <v>15683</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -1541,10 +1699,10 @@
         <v>15684</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -1552,10 +1710,10 @@
         <v>15685</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -1563,10 +1721,10 @@
         <v>15686</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -1574,10 +1732,10 @@
         <v>16197</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="67" spans="2:4">
@@ -1585,10 +1743,10 @@
         <v>16234</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -1596,10 +1754,10 @@
         <v>16235</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -1607,10 +1765,10 @@
         <v>16236</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -1618,10 +1776,10 @@
         <v>16509</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="71" spans="2:4">
@@ -1629,10 +1787,10 @@
         <v>16637</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="72" spans="2:4">
@@ -1640,10 +1798,10 @@
         <v>16918</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="73" spans="2:4">
@@ -1651,21 +1809,21 @@
         <v>16946</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="1">
+      <c r="B74" s="3">
         <v>16985</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -1673,32 +1831,32 @@
         <v>17070</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="1">
+      <c r="B76" s="3">
         <v>17135</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="1">
+      <c r="B77" s="3">
         <v>17136</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="78" spans="2:4">
@@ -1706,10 +1864,10 @@
         <v>17140</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -1717,10 +1875,10 @@
         <v>17142</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -1728,10 +1886,10 @@
         <v>17143</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -1739,10 +1897,10 @@
         <v>17144</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="82" spans="2:4">
@@ -1750,10 +1908,10 @@
         <v>17406</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="83" spans="2:4">
@@ -1761,10 +1919,10 @@
         <v>17471</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="84" spans="2:4">
@@ -1772,10 +1930,10 @@
         <v>17472</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -1783,10 +1941,10 @@
         <v>17779</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="86" spans="2:4">
@@ -1794,14 +1952,14 @@
         <v>17837</v>
       </c>
       <c r="C86" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="89" spans="2:4">
-      <c r="B89" s="5"/>
+      <c r="B89" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D92">

--- a/Problem_set.xlsx
+++ b/Problem_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujin\source\repos\BOJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0E650C-8185-4B9E-B135-D6A7E6AAEE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{532B52FB-DA0E-4987-90B3-9E5CA1FF619F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
+    <workbookView xWindow="1515" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
   <si>
     <t>기출 문제</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,45 @@
   </si>
   <si>
     <t>value 보다 큰 값이 처음 나타나는 위치를 반복자로 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최단거리(다익스트라 밸만포드)</t>
+  </si>
+  <si>
+    <t>binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dijkstra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bellman Ford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Floyd Warshall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPFA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kruskal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A03942-3CED-4DF8-BC8F-0875955C4CAC}">
   <dimension ref="B1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1038,6 +1077,9 @@
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="1">
@@ -1287,7 +1329,9 @@
       <c r="D30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -1303,11 +1347,7 @@
         <v>75</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J31" s="5"/>
     </row>
@@ -1321,10 +1361,8 @@
       <c r="D32" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="9" t="s">
-        <v>107</v>
+      <c r="G32" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="J32" s="5"/>
     </row>
@@ -1339,11 +1377,7 @@
         <v>81</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J33" s="5"/>
     </row>
@@ -1357,7 +1391,9 @@
       <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -1372,7 +1408,9 @@
       <c r="D35" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -1387,7 +1425,9 @@
       <c r="D36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -1402,7 +1442,9 @@
       <c r="D37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="5"/>
+      <c r="G37" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -1417,10 +1459,9 @@
       <c r="D38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="G38" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="1">
@@ -1432,10 +1473,9 @@
       <c r="D39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="G39" s="5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="1">
@@ -1447,10 +1487,6 @@
       <c r="D40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="1">
@@ -1495,6 +1531,14 @@
       <c r="D44" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="G44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="I44" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="1">
@@ -1506,6 +1550,12 @@
       <c r="D45" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="1">
@@ -1517,6 +1567,14 @@
       <c r="D46" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="G46" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="5"/>
+      <c r="I46" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" s="5"/>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="1">
@@ -1750,7 +1808,7 @@
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="1">
+      <c r="B68" s="3">
         <v>16235</v>
       </c>
       <c r="C68" s="2" t="s">

--- a/Problem_set.xlsx
+++ b/Problem_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujin\source\repos\BOJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{532B52FB-DA0E-4987-90B3-9E5CA1FF619F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80056AA1-EB25-42A4-8D79-D6D65BDEBC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="3210" windowWidth="21600" windowHeight="11385" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
+    <workbookView xWindow="8505" yWindow="975" windowWidth="19200" windowHeight="14550" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>보이저 1호</t>
   </si>
   <si>
-    <t xml:space="preserve">부등호 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maaaaaaaaaze </t>
   </si>
   <si>
@@ -441,6 +438,10 @@
   </si>
   <si>
     <t>Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A03942-3CED-4DF8-BC8F-0875955C4CAC}">
   <dimension ref="B1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -936,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -950,7 +951,7 @@
         <v>1022</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>14</v>
@@ -961,7 +962,7 @@
         <v>1194</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -972,21 +973,21 @@
         <v>1525</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>1600</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -994,7 +995,7 @@
         <v>1726</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
@@ -1005,10 +1006,10 @@
         <v>1937</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -1016,7 +1017,7 @@
         <v>1938</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -1030,10 +1031,10 @@
         <v>1939</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
@@ -1044,10 +1045,10 @@
         <v>1952</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
         <v>4</v>
@@ -1058,7 +1059,7 @@
         <v>2151</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
@@ -1072,13 +1073,13 @@
         <v>2156</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -1086,10 +1087,10 @@
         <v>2169</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1100,7 +1101,7 @@
         <v>2468</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>17</v>
@@ -1114,10 +1115,10 @@
         <v>2529</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -1128,10 +1129,10 @@
         <v>2602</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -1142,10 +1143,10 @@
         <v>2638</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -1153,13 +1154,13 @@
         <v>2931</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1167,13 +1168,13 @@
         <v>3020</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:10">
@@ -1181,13 +1182,13 @@
         <v>3055</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:10">
@@ -1195,13 +1196,13 @@
         <v>3079</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:10">
@@ -1209,13 +1210,13 @@
         <v>3987</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1226,13 +1227,13 @@
         <v>4008</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -1243,13 +1244,13 @@
         <v>4012</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1260,13 +1261,13 @@
         <v>4013</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1277,13 +1278,13 @@
         <v>4014</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1294,10 +1295,10 @@
         <v>5373</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1309,7 +1310,7 @@
         <v>5427</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
@@ -1324,13 +1325,13 @@
         <v>5644</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1341,13 +1342,13 @@
         <v>5644</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J31" s="5"/>
     </row>
@@ -1356,13 +1357,13 @@
         <v>5644</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J32" s="5"/>
     </row>
@@ -1371,13 +1372,13 @@
         <v>5644</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J33" s="5"/>
     </row>
@@ -1386,13 +1387,13 @@
         <v>5644</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -1403,13 +1404,13 @@
         <v>5644</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1420,10 +1421,10 @@
         <v>5644</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>5</v>
@@ -1437,13 +1438,13 @@
         <v>5644</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -1454,13 +1455,13 @@
         <v>5648</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="2:10">
@@ -1468,13 +1469,13 @@
         <v>5650</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="2:10">
@@ -1482,10 +1483,10 @@
         <v>5653</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:10">
@@ -1493,10 +1494,10 @@
         <v>5656</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="2:10">
@@ -1504,10 +1505,10 @@
         <v>5658</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:10">
@@ -1515,28 +1516,28 @@
         <v>6087</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="1">
+      <c r="B44" s="3">
         <v>9019</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J44" s="5"/>
     </row>
@@ -1545,7 +1546,7 @@
         <v>9328</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>24</v>
@@ -1553,7 +1554,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J45" s="5"/>
     </row>
@@ -1562,17 +1563,17 @@
         <v>9376</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J46" s="5"/>
     </row>
@@ -1581,10 +1582,10 @@
         <v>10875</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="2:10">
@@ -1592,10 +1593,10 @@
         <v>11055</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -1603,10 +1604,10 @@
         <v>11066</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -1614,7 +1615,7 @@
         <v>11559</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>10</v>
@@ -1625,10 +1626,10 @@
         <v>11727</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -1636,10 +1637,10 @@
         <v>13458</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -1647,10 +1648,10 @@
         <v>14499</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -1658,10 +1659,10 @@
         <v>14500</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -1669,10 +1670,10 @@
         <v>14501</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -1680,10 +1681,10 @@
         <v>14502</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -1691,10 +1692,10 @@
         <v>14503</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -1702,10 +1703,10 @@
         <v>14888</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="2:4">
@@ -1713,10 +1714,10 @@
         <v>14889</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -1724,10 +1725,10 @@
         <v>14890</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -1735,10 +1736,10 @@
         <v>14891</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -1746,10 +1747,10 @@
         <v>15683</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -1757,10 +1758,10 @@
         <v>15684</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="2:4">
@@ -1768,10 +1769,10 @@
         <v>15685</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="2:4">
@@ -1779,10 +1780,10 @@
         <v>15686</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="2:4">
@@ -1790,7 +1791,7 @@
         <v>16197</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>15</v>
@@ -1801,10 +1802,10 @@
         <v>16234</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="2:4">
@@ -1812,10 +1813,10 @@
         <v>16235</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="2:4">
@@ -1823,10 +1824,10 @@
         <v>16236</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="2:4">
@@ -1834,7 +1835,7 @@
         <v>16509</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>21</v>
@@ -1845,7 +1846,7 @@
         <v>16637</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>19</v>
@@ -1856,7 +1857,7 @@
         <v>16918</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>18</v>
@@ -1867,7 +1868,7 @@
         <v>16946</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>28</v>
@@ -1878,10 +1879,10 @@
         <v>16985</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="2:4">
@@ -1889,10 +1890,10 @@
         <v>17070</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="2:4">
@@ -1900,10 +1901,10 @@
         <v>17135</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="2:4">
@@ -1911,7 +1912,7 @@
         <v>17136</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>20</v>
@@ -1922,10 +1923,10 @@
         <v>17140</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="2:4">
@@ -1933,10 +1934,10 @@
         <v>17142</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="2:4">
@@ -1944,10 +1945,10 @@
         <v>17143</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="2:4">
@@ -1955,10 +1956,10 @@
         <v>17144</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="2:4">
@@ -1966,10 +1967,10 @@
         <v>17406</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="2:4">
@@ -1977,10 +1978,10 @@
         <v>17471</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="2:4">
@@ -1988,10 +1989,10 @@
         <v>17472</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="2:4">
@@ -1999,10 +2000,10 @@
         <v>17779</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" spans="2:4">
@@ -2010,10 +2011,10 @@
         <v>17837</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="2:4">

--- a/Problem_set.xlsx
+++ b/Problem_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujin\source\repos\BOJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80056AA1-EB25-42A4-8D79-D6D65BDEBC30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E99855E-D14A-44F3-B51B-F27C6E9EEB80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8505" yWindow="975" windowWidth="19200" windowHeight="14550" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
   </bookViews>
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A03942-3CED-4DF8-BC8F-0875955C4CAC}">
   <dimension ref="B1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Problem_set.xlsx
+++ b/Problem_set.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujin\source\repos\BOJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E99855E-D14A-44F3-B51B-F27C6E9EEB80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBB7A38-14F3-46C1-A31C-86F1CA9867AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="975" windowWidth="19200" windowHeight="14550" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="14415" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -918,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A03942-3CED-4DF8-BC8F-0875955C4CAC}">
   <dimension ref="B1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1041,7 +1040,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>1952</v>
       </c>
       <c r="C11" s="2" t="s">

--- a/Problem_set.xlsx
+++ b/Problem_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujin\source\repos\BOJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBB7A38-14F3-46C1-A31C-86F1CA9867AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38DE08E-B8C7-491E-A3E3-505583D4FD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="14415" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
   </bookViews>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A03942-3CED-4DF8-BC8F-0875955C4CAC}">
   <dimension ref="B1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1273,7 +1273,7 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>4014</v>
       </c>
       <c r="C27" s="2" t="s">

--- a/Problem_set.xlsx
+++ b/Problem_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sujin\source\repos\BOJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38DE08E-B8C7-491E-A3E3-505583D4FD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B5985A-D853-46AD-BF12-A3893895A03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17310" windowHeight="14415" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
+    <workbookView xWindow="11025" yWindow="510" windowWidth="13935" windowHeight="14415" xr2:uid="{BB323FBC-C869-4EA8-A129-F3682DF0B4F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A03942-3CED-4DF8-BC8F-0875955C4CAC}">
   <dimension ref="B1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1320,8 +1320,8 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="1">
-        <v>5644</v>
+      <c r="B30" s="3">
+        <v>2382</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>60</v>
@@ -1352,8 +1352,8 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="1">
-        <v>5644</v>
+      <c r="B32" s="3">
+        <v>2112</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>60</v>
@@ -1367,8 +1367,8 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="1">
-        <v>5644</v>
+      <c r="B33" s="3">
+        <v>2115</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>60</v>
@@ -1382,8 +1382,8 @@
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="1">
-        <v>5644</v>
+      <c r="B34" s="3">
+        <v>2117</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>60</v>
@@ -1399,8 +1399,8 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="1">
-        <v>5644</v>
+      <c r="B35" s="3">
+        <v>2105</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>60</v>
@@ -1416,8 +1416,8 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="1">
-        <v>5644</v>
+      <c r="B36" s="3">
+        <v>1949</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>60</v>
@@ -1433,8 +1433,8 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="1">
-        <v>5644</v>
+      <c r="B37" s="3">
+        <v>2383</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>60</v>
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>5653</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1489,7 +1489,7 @@
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>5656</v>
       </c>
       <c r="C41" s="2" t="s">
